--- a/Output_testing/R1_201907/Country/HKD/MN/VENEZUELA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VENEZUELA_201907_HKD_MN.xlsx
@@ -544,21 +544,27 @@
       <c r="C7" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.001252</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.000126</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="G7" s="8" t="n">
         <v>2.25</v>
       </c>
       <c r="H7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
       <c r="I7" s="9" t="n">
@@ -566,7 +572,7 @@
       </c>
       <c r="J7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
     </row>
@@ -662,8 +668,10 @@
       <c r="G10" s="8" t="n">
         <v>17.000321</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>1068.498577045409</v>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I10" s="9" t="n">
         <v>23.28144705219371</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/VENEZUELA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VENEZUELA_201907_HKD_MN.xlsx
@@ -822,136 +822,497 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>8.890549</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>5.035219839131432</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>23.231832</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>12.68799519591628</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>9.343112</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>5.901882229367691</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>30.122393</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>62.05435810092986</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>528.9248411005227</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>130.246304</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>73.76583536903554</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>115.618146</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>63.14450281014201</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>90.75206</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>57.32650643516961</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>9.483921</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>19.53757890134854</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-59.29685896943715</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.635166459951976</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>4.122554</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.251520471864012</v>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.92221</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.899820827125472</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.8874</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.5025847206112055</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>0.657849</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.3592822534029314</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.625223</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.3949425537328415</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.815267</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.679510335246964</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>158.4391583031656</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.07418589968832612</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.07020584713681635</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.594642</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.225006512923895</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9962517777923449</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.589727</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.9003521525164413</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.971601</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5306369648483793</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.7302149999999999</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.461264183937614</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.8952175094092849</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>30.93334859938956</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1261049288835824</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.05631540106831485</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.09125919989793019</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.6978665420624052</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.436819</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.946464634782829</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>18.939103</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>10.3435341594655</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>6.064432</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.830796789336226</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.5589598735905643</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>161.4422539554065</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>31.095067</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.61089199975402</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>19.394601</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.59230302262487</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>50.491212</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>31.89442520244183</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.825269</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.820263159618694</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-93.72086229666365</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -983,136 +1344,623 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1144,136 +1992,485 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>8.890549</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>5.035219839131432</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>23.231832</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>12.68808195398006</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>9.343112</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>5.901886926798737</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>30.122393</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>65.07048331906375</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>528.9248411005227</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>130.246304</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>73.76583536903554</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>115.618146</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>63.14493458007237</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>90.75206</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>57.32655206253062</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>9.483921</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>20.48719446791025</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-59.29685896943715</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>4.122554</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.251535867326706</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.92221</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.992160796178238</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0.8874</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.5025847206112055</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.657849</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.3592847101056787</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>0.625223</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.3949428680758495</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0.815267</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.761142208193192</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>158.4391583031656</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.07418589968832612</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.07020590301511301</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>0.594642</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.28454742429709</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.044674164270389</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.589727</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.9003521525164413</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.970349</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.5299568125304366</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>0.730089</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.4611849589836409</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.938729169000586</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>30.93334859938956</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1261049288835824</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.05631578614216477</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.09125927253302898</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.7317860433000591</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>3.436819</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.946464634782829</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>18.939103</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>10.34360488655693</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.064432</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.830799838347215</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.586127876326478</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>161.4422539554065</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.674505</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.081079635800629</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.040525</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.114434213760893</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.701881</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.443366439155222</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.5315741101054599</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-41.59542401443049</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>27.420562</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>15.52981236395339</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>17.354076</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>9.477941236988908</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>49.789331</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>31.45108414872423</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.579193</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.571580421354505</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-94.2135800501503</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1305,136 +2502,497 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>34.413858</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>40.5289130954247</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>2.963375</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>1.327074258433793</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>15.805863</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>11.09256773974587</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>17.265982</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>35.14471706224055</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>57.60548583771838</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>32.080937</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>37.78145152144217</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>22.560869</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>10.10332762400876</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>18.253928</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>12.81062178360294</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>12.834676</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>26.12484228267638</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>6.607533085924522</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.592245</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.265222286813556</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>6.733462</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.725549206519421</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>8.412634000000001</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>17.12382427354465</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>256.6712681650366</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4.792108</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.75428329484529</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.903191</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.419063789314733</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.686256</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.20297336285935</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.826318</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.281711484486307</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.641481</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.37670561513873</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>179.3902342283264</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1983468271279387</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.559786</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.2506863258384845</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1.294186</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.9082608063116036</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1.28154</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.608560619601234</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>26.81721968727642</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1.008599</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.187818617114427</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.061185</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.4752254766730719</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.3259064792849099</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>0.667723</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.35914284579646</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>999.4944837806685</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.9952014770811159</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.805371</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.8084907853453832</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.7789511218628355</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF ETHYLENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.1446523794521981</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.4070978072633292</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>36.317784018103</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>14.336865</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>16.88440614957603</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>191.032293</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>85.54909134681978</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>97.906311</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>68.71073012059675</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.3266735999494221</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-99.83267763841401</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
